--- a/Hardware/Satelite/PCB_E/BOM_E.xlsx
+++ b/Hardware/Satelite/PCB_E/BOM_E.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repos\CanSat\Hardware\Satelite\PCB_E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys32\home\tmax4\esp\Hardware\Satelite\PCB_E\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B43AF649-5494-4381-A742-3F708CCCBA5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9463"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="PCB_E_" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB_E" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>References</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Reference(s)</t>
   </si>
   <si>
     <t>Value</t>
@@ -39,31 +34,76 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Quantity Per PCB</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
+    <t>Conn_02x02_Counter_Clockwise</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_2x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_02x10_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_2x10_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x06</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x03</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
     <t>Conector_Expansion_CanSat</t>
   </si>
   <si>
-    <t>J12</t>
+    <t>AXTEC:Conector_Expansion_CanSat</t>
+  </si>
+  <si>
+    <t>Spacer</t>
+  </si>
+  <si>
+    <t>AXTEC:Empty_Footprint</t>
+  </si>
+  <si>
+    <t>R30-3011202</t>
+  </si>
+  <si>
+    <t>MH1</t>
+  </si>
+  <si>
+    <t>MH_CanSat</t>
+  </si>
+  <si>
+    <t>AXTEC:MH_CanSat</t>
+  </si>
+  <si>
+    <t>J1, J2, J3</t>
+  </si>
+  <si>
+    <t>J4, J5, J6, J7</t>
+  </si>
+  <si>
+    <t>J8, J14, J15</t>
+  </si>
+  <si>
+    <t>J9, J10, J11, J13</t>
+  </si>
+  <si>
+    <t>M1, M2, M3</t>
   </si>
   <si>
     <t>SSQ-106-03-T-S</t>
-  </si>
-  <si>
-    <t>Spacer</t>
-  </si>
-  <si>
-    <t>M1 M2 M3</t>
-  </si>
-  <si>
-    <t>Empty_Footprint</t>
-  </si>
-  <si>
-    <t>R30-3011002</t>
   </si>
 </sst>
 </file>
@@ -132,7 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,31 +565,30 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -609,19 +648,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Component"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Part"/>
-    <tableColumn id="4" name="References"/>
-    <tableColumn id="5" name="Value"/>
-    <tableColumn id="6" name="Footprint"/>
-    <tableColumn id="7" name="Quantity Per PCB"/>
-    <tableColumn id="8" name="Manufacturer Part Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Qty"/>
+    <tableColumn id="2" name="Reference(s)"/>
+    <tableColumn id="3" name="Value"/>
+    <tableColumn id="4" name="Footprint"/>
+    <tableColumn id="5" name="Manufacturer Part Number"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -642,7 +678,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -654,7 +690,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -701,6 +737,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -736,6 +789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -888,24 +958,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.4609375" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" customWidth="1"/>
-    <col min="4" max="4" width="13.69140625" customWidth="1"/>
-    <col min="5" max="5" width="28.765625" customWidth="1"/>
-    <col min="6" max="6" width="32.23046875" customWidth="1"/>
-    <col min="7" max="7" width="17.921875" customWidth="1"/>
-    <col min="8" max="8" width="30.61328125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -921,64 +989,110 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
